--- a/output/stock_result_0.xlsx
+++ b/output/stock_result_0.xlsx
@@ -1,37 +1,622 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20417"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Source\akshare\output\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2838F66-AF1F-4F86-B364-4764F8BE8AB4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$90</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="187">
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>指标1</t>
+  </si>
+  <si>
+    <t>指标2</t>
+  </si>
+  <si>
+    <t>指标3</t>
+  </si>
+  <si>
+    <t>指标4</t>
+  </si>
+  <si>
+    <t>指标5</t>
+  </si>
+  <si>
+    <t>指标6</t>
+  </si>
+  <si>
+    <t>综合评估</t>
+  </si>
+  <si>
+    <t>000333</t>
+  </si>
+  <si>
+    <t>000523</t>
+  </si>
+  <si>
+    <t>000568</t>
+  </si>
+  <si>
+    <t>000596</t>
+  </si>
+  <si>
+    <t>000651</t>
+  </si>
+  <si>
+    <t>000848</t>
+  </si>
+  <si>
+    <t>000858</t>
+  </si>
+  <si>
+    <t>000885</t>
+  </si>
+  <si>
+    <t>000921</t>
+  </si>
+  <si>
+    <t>000963</t>
+  </si>
+  <si>
+    <t>000999</t>
+  </si>
+  <si>
+    <t>002001</t>
+  </si>
+  <si>
+    <t>002003</t>
+  </si>
+  <si>
+    <t>002014</t>
+  </si>
+  <si>
+    <t>002028</t>
+  </si>
+  <si>
+    <t>002032</t>
+  </si>
+  <si>
+    <t>002128</t>
+  </si>
+  <si>
+    <t>002142</t>
+  </si>
+  <si>
+    <t>002179</t>
+  </si>
+  <si>
+    <t>002262</t>
+  </si>
+  <si>
+    <t>002311</t>
+  </si>
+  <si>
+    <t>002318</t>
+  </si>
+  <si>
+    <t>002463</t>
+  </si>
+  <si>
+    <t>002475</t>
+  </si>
+  <si>
+    <t>002595</t>
+  </si>
+  <si>
+    <t>002648</t>
+  </si>
+  <si>
+    <t>002668</t>
+  </si>
+  <si>
+    <t>002705</t>
+  </si>
+  <si>
+    <t>002749</t>
+  </si>
+  <si>
+    <t>002920</t>
+  </si>
+  <si>
+    <t>300012</t>
+  </si>
+  <si>
+    <t>300274</t>
+  </si>
+  <si>
+    <t>300360</t>
+  </si>
+  <si>
+    <t>300394</t>
+  </si>
+  <si>
+    <t>300415</t>
+  </si>
+  <si>
+    <t>300453</t>
+  </si>
+  <si>
+    <t>300470</t>
+  </si>
+  <si>
+    <t>300487</t>
+  </si>
+  <si>
+    <t>300628</t>
+  </si>
+  <si>
+    <t>300693</t>
+  </si>
+  <si>
+    <t>300705</t>
+  </si>
+  <si>
+    <t>300724</t>
+  </si>
+  <si>
+    <t>300750</t>
+  </si>
+  <si>
+    <t>300760</t>
+  </si>
+  <si>
+    <t>600211</t>
+  </si>
+  <si>
+    <t>600285</t>
+  </si>
+  <si>
+    <t>600406</t>
+  </si>
+  <si>
+    <t>600519</t>
+  </si>
+  <si>
+    <t>600563</t>
+  </si>
+  <si>
+    <t>600660</t>
+  </si>
+  <si>
+    <t>600690</t>
+  </si>
+  <si>
+    <t>600729</t>
+  </si>
+  <si>
+    <t>600750</t>
+  </si>
+  <si>
+    <t>600779</t>
+  </si>
+  <si>
+    <t>600809</t>
+  </si>
+  <si>
+    <t>600885</t>
+  </si>
+  <si>
+    <t>600900</t>
+  </si>
+  <si>
+    <t>600901</t>
+  </si>
+  <si>
+    <t>600961</t>
+  </si>
+  <si>
+    <t>600970</t>
+  </si>
+  <si>
+    <t>601058</t>
+  </si>
+  <si>
+    <t>601138</t>
+  </si>
+  <si>
+    <t>601336</t>
+  </si>
+  <si>
+    <t>601799</t>
+  </si>
+  <si>
+    <t>601899</t>
+  </si>
+  <si>
+    <t>601975</t>
+  </si>
+  <si>
+    <t>603025</t>
+  </si>
+  <si>
+    <t>603040</t>
+  </si>
+  <si>
+    <t>603088</t>
+  </si>
+  <si>
+    <t>603091</t>
+  </si>
+  <si>
+    <t>603129</t>
+  </si>
+  <si>
+    <t>603181</t>
+  </si>
+  <si>
+    <t>603194</t>
+  </si>
+  <si>
+    <t>603198</t>
+  </si>
+  <si>
+    <t>603201</t>
+  </si>
+  <si>
+    <t>603259</t>
+  </si>
+  <si>
+    <t>603277</t>
+  </si>
+  <si>
+    <t>603298</t>
+  </si>
+  <si>
+    <t>603312</t>
+  </si>
+  <si>
+    <t>603355</t>
+  </si>
+  <si>
+    <t>603369</t>
+  </si>
+  <si>
+    <t>603393</t>
+  </si>
+  <si>
+    <t>603519</t>
+  </si>
+  <si>
+    <t>603568</t>
+  </si>
+  <si>
+    <t>603596</t>
+  </si>
+  <si>
+    <t>603600</t>
+  </si>
+  <si>
+    <t>603605</t>
+  </si>
+  <si>
+    <t>603699</t>
+  </si>
+  <si>
+    <t>603871</t>
+  </si>
+  <si>
+    <t>美的集团</t>
+  </si>
+  <si>
+    <t>红棉股份</t>
+  </si>
+  <si>
+    <t>泸州老窖</t>
+  </si>
+  <si>
+    <t>古井贡酒</t>
+  </si>
+  <si>
+    <t>格力电器</t>
+  </si>
+  <si>
+    <t>承德露露</t>
+  </si>
+  <si>
+    <t>五 粮 液</t>
+  </si>
+  <si>
+    <t>城发环境</t>
+  </si>
+  <si>
+    <t>海信家电</t>
+  </si>
+  <si>
+    <t>华东医药</t>
+  </si>
+  <si>
+    <t>华润三九</t>
+  </si>
+  <si>
+    <t>新 和 成</t>
+  </si>
+  <si>
+    <t>伟星股份</t>
+  </si>
+  <si>
+    <t>永新股份</t>
+  </si>
+  <si>
+    <t>思源电气</t>
+  </si>
+  <si>
+    <t>苏 泊 尔</t>
+  </si>
+  <si>
+    <t>电投能源</t>
+  </si>
+  <si>
+    <t>宁波银行</t>
+  </si>
+  <si>
+    <t>中航光电</t>
+  </si>
+  <si>
+    <t>恩华药业</t>
+  </si>
+  <si>
+    <t>海大集团</t>
+  </si>
+  <si>
+    <t>久立特材</t>
+  </si>
+  <si>
+    <t>沪电股份</t>
+  </si>
+  <si>
+    <t>立讯精密</t>
+  </si>
+  <si>
+    <t>豪迈科技</t>
+  </si>
+  <si>
+    <t>卫星化学</t>
+  </si>
+  <si>
+    <t>TCL智家</t>
+  </si>
+  <si>
+    <t>新宝股份</t>
+  </si>
+  <si>
+    <t>国光股份</t>
+  </si>
+  <si>
+    <t>德赛西威</t>
+  </si>
+  <si>
+    <t>华测检测</t>
+  </si>
+  <si>
+    <t>阳光电源</t>
+  </si>
+  <si>
+    <t>炬华科技</t>
+  </si>
+  <si>
+    <t>天孚通信</t>
+  </si>
+  <si>
+    <t>伊之密</t>
+  </si>
+  <si>
+    <t>三鑫医疗</t>
+  </si>
+  <si>
+    <t>中密控股</t>
+  </si>
+  <si>
+    <t>蓝晓科技</t>
+  </si>
+  <si>
+    <t>亿联网络</t>
+  </si>
+  <si>
+    <t>盛弘股份</t>
+  </si>
+  <si>
+    <t>九典制药</t>
+  </si>
+  <si>
+    <t>捷佳伟创</t>
+  </si>
+  <si>
+    <t>宁德时代</t>
+  </si>
+  <si>
+    <t>迈瑞医疗</t>
+  </si>
+  <si>
+    <t>西藏药业</t>
+  </si>
+  <si>
+    <t>羚锐制药</t>
+  </si>
+  <si>
+    <t>国电南瑞</t>
+  </si>
+  <si>
+    <t>贵州茅台</t>
+  </si>
+  <si>
+    <t>法拉电子</t>
+  </si>
+  <si>
+    <t>福耀玻璃</t>
+  </si>
+  <si>
+    <t>海尔智家</t>
+  </si>
+  <si>
+    <t>重庆百货</t>
+  </si>
+  <si>
+    <t>江中药业</t>
+  </si>
+  <si>
+    <t>水井坊</t>
+  </si>
+  <si>
+    <t>山西汾酒</t>
+  </si>
+  <si>
+    <t>宏发股份</t>
+  </si>
+  <si>
+    <t>长江电力</t>
+  </si>
+  <si>
+    <t>江苏金租</t>
+  </si>
+  <si>
+    <t>株冶集团</t>
+  </si>
+  <si>
+    <t>中材国际</t>
+  </si>
+  <si>
+    <t>赛轮轮胎</t>
+  </si>
+  <si>
+    <t>工业富联</t>
+  </si>
+  <si>
+    <t>新华保险</t>
+  </si>
+  <si>
+    <t>星宇股份</t>
+  </si>
+  <si>
+    <t>紫金矿业</t>
+  </si>
+  <si>
+    <t>招商南油</t>
+  </si>
+  <si>
+    <t>大豪科技</t>
+  </si>
+  <si>
+    <t>新坐标</t>
+  </si>
+  <si>
+    <t>宁波精达</t>
+  </si>
+  <si>
+    <t>众鑫股份</t>
+  </si>
+  <si>
+    <t>春风动力</t>
+  </si>
+  <si>
+    <t>皇马科技</t>
+  </si>
+  <si>
+    <t>中力股份</t>
+  </si>
+  <si>
+    <t>迎驾贡酒</t>
+  </si>
+  <si>
+    <t>常润股份</t>
+  </si>
+  <si>
+    <t>药明康德</t>
+  </si>
+  <si>
+    <t>银都股份</t>
+  </si>
+  <si>
+    <t>杭叉集团</t>
+  </si>
+  <si>
+    <t>西典新能</t>
+  </si>
+  <si>
+    <t>莱克电气</t>
+  </si>
+  <si>
+    <t>今世缘</t>
+  </si>
+  <si>
+    <t>新天然气</t>
+  </si>
+  <si>
+    <t>立霸股份</t>
+  </si>
+  <si>
+    <t>伟明环保</t>
+  </si>
+  <si>
+    <t>伯特利</t>
+  </si>
+  <si>
+    <t>永艺股份</t>
+  </si>
+  <si>
+    <t>珀莱雅</t>
+  </si>
+  <si>
+    <t>纽威股份</t>
+  </si>
+  <si>
+    <t>嘉友国际</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,98 +631,48 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -179,7 +714,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -211,9 +746,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -245,6 +798,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -420,66 +991,54 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G77"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:I90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="10.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>stock</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>指标1</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>指标2</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>指标3</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>指标4</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>综合评估</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>000333</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>美的集团</t>
-        </is>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>98</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
@@ -494,19 +1053,21 @@
         <v>1</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>000523</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>红棉股份</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>99</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
@@ -518,22 +1079,24 @@
         <v>1</v>
       </c>
       <c r="F3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>000568</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>泸州老窖</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>100</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
@@ -550,17 +1113,19 @@
       <c r="G4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>000596</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>古井贡酒</t>
-        </is>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>101</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
@@ -577,17 +1142,19 @@
       <c r="G5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>000651</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>格力电器</t>
-        </is>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>102</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
@@ -599,22 +1166,24 @@
         <v>1</v>
       </c>
       <c r="F6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>000848</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>承德露露</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>103</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
@@ -631,17 +1200,19 @@
       <c r="G7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>000858</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>五 粮 液</t>
-        </is>
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>104</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
@@ -658,17 +1229,19 @@
       <c r="G8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>000885</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>城发环境</t>
-        </is>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>105</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
@@ -680,22 +1253,24 @@
         <v>1</v>
       </c>
       <c r="F9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>000921</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>海信家电</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>106</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
@@ -707,22 +1282,24 @@
         <v>1</v>
       </c>
       <c r="F10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>000963</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>华东医药</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>107</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
@@ -737,22 +1314,24 @@
         <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>000999</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>华润三九</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>108</v>
       </c>
       <c r="C12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
@@ -764,19 +1343,21 @@
         <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>001332</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>锡装股份</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>109</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
@@ -791,19 +1372,21 @@
         <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>001359</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>平安电工</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>110</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
@@ -815,22 +1398,24 @@
         <v>1</v>
       </c>
       <c r="F14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>001367</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>海森药业</t>
-        </is>
+      <c r="H14" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>111</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
@@ -842,25 +1427,27 @@
         <v>1</v>
       </c>
       <c r="F15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>001376</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>百通能源</t>
-        </is>
+      <c r="H15" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>112</v>
       </c>
       <c r="C16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="b">
         <v>1</v>
@@ -869,22 +1456,24 @@
         <v>1</v>
       </c>
       <c r="F16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>001395</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>亚联机械</t>
-        </is>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>113</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
@@ -896,22 +1485,24 @@
         <v>1</v>
       </c>
       <c r="F17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>001400</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>江顺科技</t>
-        </is>
+      <c r="H17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>114</v>
       </c>
       <c r="C18" t="b">
         <v>1</v>
@@ -923,25 +1514,27 @@
         <v>1</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>002001</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>新 和 成</t>
-        </is>
+      <c r="H18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="s">
+        <v>115</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="b">
         <v>1</v>
@@ -950,25 +1543,27 @@
         <v>1</v>
       </c>
       <c r="F19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>002003</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>伟星股份</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H19" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
+        <v>116</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="b">
         <v>1</v>
@@ -980,19 +1575,21 @@
         <v>1</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>002014</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>永新股份</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
+        <v>117</v>
       </c>
       <c r="C21" t="b">
         <v>1</v>
@@ -1007,19 +1604,21 @@
         <v>1</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>002028</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>思源电气</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H21" t="b">
+        <v>1</v>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" t="s">
+        <v>118</v>
       </c>
       <c r="C22" t="b">
         <v>1</v>
@@ -1031,22 +1630,24 @@
         <v>1</v>
       </c>
       <c r="F22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>002032</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>苏 泊 尔</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="H22" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
+        <v>119</v>
       </c>
       <c r="C23" t="b">
         <v>1</v>
@@ -1058,22 +1659,24 @@
         <v>1</v>
       </c>
       <c r="F23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>002128</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>电投能源</t>
-        </is>
+      <c r="H23" t="b">
+        <v>1</v>
+      </c>
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" t="s">
+        <v>120</v>
       </c>
       <c r="C24" t="b">
         <v>1</v>
@@ -1088,19 +1691,21 @@
         <v>1</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>002142</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>宁波银行</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H24" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" t="s">
+        <v>121</v>
       </c>
       <c r="C25" t="b">
         <v>1</v>
@@ -1115,19 +1720,21 @@
         <v>1</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>002179</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>中航光电</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H25" t="b">
+        <v>1</v>
+      </c>
+      <c r="I25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" t="s">
+        <v>122</v>
       </c>
       <c r="C26" t="b">
         <v>1</v>
@@ -1139,22 +1746,24 @@
         <v>1</v>
       </c>
       <c r="F26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>002262</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>恩华药业</t>
-        </is>
+      <c r="H26" t="b">
+        <v>1</v>
+      </c>
+      <c r="I26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" t="s">
+        <v>123</v>
       </c>
       <c r="C27" t="b">
         <v>1</v>
@@ -1171,17 +1780,19 @@
       <c r="G27" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>002311</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>海大集团</t>
-        </is>
+      <c r="H27" t="b">
+        <v>1</v>
+      </c>
+      <c r="I27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" t="s">
+        <v>124</v>
       </c>
       <c r="C28" t="b">
         <v>1</v>
@@ -1198,20 +1809,22 @@
       <c r="G28" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>002318</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>久立特材</t>
-        </is>
+      <c r="H28" t="b">
+        <v>1</v>
+      </c>
+      <c r="I28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" t="s">
+        <v>125</v>
       </c>
       <c r="C29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="b">
         <v>1</v>
@@ -1223,22 +1836,24 @@
         <v>1</v>
       </c>
       <c r="G29" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>002463</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>沪电股份</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" t="s">
+        <v>126</v>
       </c>
       <c r="C30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" t="b">
         <v>1</v>
@@ -1247,22 +1862,24 @@
         <v>1</v>
       </c>
       <c r="F30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>002475</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>立讯精密</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="H30" t="b">
+        <v>1</v>
+      </c>
+      <c r="I30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" t="s">
+        <v>127</v>
       </c>
       <c r="C31" t="b">
         <v>1</v>
@@ -1277,19 +1894,21 @@
         <v>1</v>
       </c>
       <c r="G31" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>002595</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>豪迈科技</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" t="s">
+        <v>128</v>
       </c>
       <c r="C32" t="b">
         <v>1</v>
@@ -1301,22 +1920,24 @@
         <v>1</v>
       </c>
       <c r="F32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>002648</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>卫星化学</t>
-        </is>
+      <c r="H32" t="b">
+        <v>1</v>
+      </c>
+      <c r="I32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" t="s">
+        <v>129</v>
       </c>
       <c r="C33" t="b">
         <v>1</v>
@@ -1331,22 +1952,24 @@
         <v>1</v>
       </c>
       <c r="G33" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>002668</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>TCL智家</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H33" t="b">
+        <v>1</v>
+      </c>
+      <c r="I33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" t="s">
+        <v>130</v>
       </c>
       <c r="C34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" t="b">
         <v>1</v>
@@ -1358,19 +1981,21 @@
         <v>1</v>
       </c>
       <c r="G34" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>002705</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>新宝股份</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H34" t="b">
+        <v>1</v>
+      </c>
+      <c r="I34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" t="s">
+        <v>131</v>
       </c>
       <c r="C35" t="b">
         <v>1</v>
@@ -1385,19 +2010,21 @@
         <v>1</v>
       </c>
       <c r="G35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>002749</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>国光股份</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" t="s">
+        <v>132</v>
       </c>
       <c r="C36" t="b">
         <v>1</v>
@@ -1412,19 +2039,21 @@
         <v>1</v>
       </c>
       <c r="G36" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>002920</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>德赛西威</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H36" t="b">
+        <v>1</v>
+      </c>
+      <c r="I36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" t="s">
+        <v>133</v>
       </c>
       <c r="C37" t="b">
         <v>1</v>
@@ -1436,25 +2065,27 @@
         <v>1</v>
       </c>
       <c r="F37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>002984</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>森麒麟</t>
-        </is>
+      <c r="H37" t="b">
+        <v>1</v>
+      </c>
+      <c r="I37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" t="s">
+        <v>134</v>
       </c>
       <c r="C38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" t="b">
         <v>1</v>
@@ -1466,19 +2097,21 @@
         <v>1</v>
       </c>
       <c r="G38" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>002991</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>甘源食品</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H38" t="b">
+        <v>1</v>
+      </c>
+      <c r="I38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" t="s">
+        <v>135</v>
       </c>
       <c r="C39" t="b">
         <v>1</v>
@@ -1493,19 +2126,21 @@
         <v>1</v>
       </c>
       <c r="G39" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>002997</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>瑞鹄模具</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" t="s">
+        <v>136</v>
       </c>
       <c r="C40" t="b">
         <v>1</v>
@@ -1517,22 +2152,24 @@
         <v>1</v>
       </c>
       <c r="F40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>003000</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>劲仔食品</t>
-        </is>
+      <c r="H40" t="b">
+        <v>1</v>
+      </c>
+      <c r="I40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" t="s">
+        <v>137</v>
       </c>
       <c r="C41" t="b">
         <v>1</v>
@@ -1544,22 +2181,24 @@
         <v>1</v>
       </c>
       <c r="F41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>003013</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>地铁设计</t>
-        </is>
+      <c r="H41" t="b">
+        <v>1</v>
+      </c>
+      <c r="I41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" t="s">
+        <v>138</v>
       </c>
       <c r="C42" t="b">
         <v>1</v>
@@ -1574,19 +2213,21 @@
         <v>1</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>300012</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>华测检测</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H42" t="b">
+        <v>1</v>
+      </c>
+      <c r="I42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43" t="s">
+        <v>139</v>
       </c>
       <c r="C43" t="b">
         <v>1</v>
@@ -1603,17 +2244,19 @@
       <c r="G43" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>300274</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>阳光电源</t>
-        </is>
+      <c r="H43" t="b">
+        <v>1</v>
+      </c>
+      <c r="I43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" t="s">
+        <v>140</v>
       </c>
       <c r="C44" t="b">
         <v>1</v>
@@ -1625,22 +2268,24 @@
         <v>1</v>
       </c>
       <c r="F44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G44" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>300360</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>炬华科技</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H44" t="b">
+        <v>1</v>
+      </c>
+      <c r="I44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" t="s">
+        <v>141</v>
       </c>
       <c r="C45" t="b">
         <v>1</v>
@@ -1655,19 +2300,21 @@
         <v>1</v>
       </c>
       <c r="G45" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>300394</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>天孚通信</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H45" t="b">
+        <v>1</v>
+      </c>
+      <c r="I45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46" t="s">
+        <v>142</v>
       </c>
       <c r="C46" t="b">
         <v>1</v>
@@ -1679,22 +2326,24 @@
         <v>1</v>
       </c>
       <c r="F46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>300415</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>伊之密</t>
-        </is>
+      <c r="H46" t="b">
+        <v>1</v>
+      </c>
+      <c r="I46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47" t="s">
+        <v>143</v>
       </c>
       <c r="C47" t="b">
         <v>1</v>
@@ -1711,20 +2360,22 @@
       <c r="G47" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>300453</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>三鑫医疗</t>
-        </is>
+      <c r="H47" t="b">
+        <v>1</v>
+      </c>
+      <c r="I47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48" t="s">
+        <v>144</v>
       </c>
       <c r="C48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48" t="b">
         <v>1</v>
@@ -1736,19 +2387,21 @@
         <v>1</v>
       </c>
       <c r="G48" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>300470</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>中密控股</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H48" t="b">
+        <v>1</v>
+      </c>
+      <c r="I48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49" t="s">
+        <v>145</v>
       </c>
       <c r="C49" t="b">
         <v>1</v>
@@ -1763,19 +2416,21 @@
         <v>1</v>
       </c>
       <c r="G49" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>300487</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>蓝晓科技</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H49" t="b">
+        <v>1</v>
+      </c>
+      <c r="I49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>57</v>
+      </c>
+      <c r="B50" t="s">
+        <v>146</v>
       </c>
       <c r="C50" t="b">
         <v>1</v>
@@ -1787,22 +2442,24 @@
         <v>1</v>
       </c>
       <c r="F50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>300628</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>亿联网络</t>
-        </is>
+      <c r="H50" t="b">
+        <v>1</v>
+      </c>
+      <c r="I50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51" t="s">
+        <v>147</v>
       </c>
       <c r="C51" t="b">
         <v>1</v>
@@ -1817,19 +2474,21 @@
         <v>1</v>
       </c>
       <c r="G51" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>300693</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>盛弘股份</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H51" t="b">
+        <v>1</v>
+      </c>
+      <c r="I51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52" t="s">
+        <v>148</v>
       </c>
       <c r="C52" t="b">
         <v>1</v>
@@ -1841,22 +2500,24 @@
         <v>1</v>
       </c>
       <c r="F52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G52" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>300705</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>九典制药</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="H52" t="b">
+        <v>1</v>
+      </c>
+      <c r="I52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>60</v>
+      </c>
+      <c r="B53" t="s">
+        <v>149</v>
       </c>
       <c r="C53" t="b">
         <v>1</v>
@@ -1873,17 +2534,19 @@
       <c r="G53" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>300724</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>捷佳伟创</t>
-        </is>
+      <c r="H53" t="b">
+        <v>1</v>
+      </c>
+      <c r="I53" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54" t="s">
+        <v>150</v>
       </c>
       <c r="C54" t="b">
         <v>1</v>
@@ -1898,19 +2561,21 @@
         <v>1</v>
       </c>
       <c r="G54" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>300750</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>宁德时代</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H54" t="b">
+        <v>1</v>
+      </c>
+      <c r="I54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>62</v>
+      </c>
+      <c r="B55" t="s">
+        <v>151</v>
       </c>
       <c r="C55" t="b">
         <v>1</v>
@@ -1922,22 +2587,24 @@
         <v>1</v>
       </c>
       <c r="F55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G55" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>300760</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>迈瑞医疗</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="H55" t="b">
+        <v>1</v>
+      </c>
+      <c r="I55" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>63</v>
+      </c>
+      <c r="B56" t="s">
+        <v>152</v>
       </c>
       <c r="C56" t="b">
         <v>1</v>
@@ -1949,22 +2616,24 @@
         <v>1</v>
       </c>
       <c r="F56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G56" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>300832</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>新产业</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="H56" t="b">
+        <v>1</v>
+      </c>
+      <c r="I56" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>64</v>
+      </c>
+      <c r="B57" t="s">
+        <v>153</v>
       </c>
       <c r="C57" t="b">
         <v>1</v>
@@ -1976,25 +2645,27 @@
         <v>1</v>
       </c>
       <c r="F57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>300842</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>帝科股份</t>
-        </is>
+      <c r="H57" t="b">
+        <v>1</v>
+      </c>
+      <c r="I57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>65</v>
+      </c>
+      <c r="B58" t="s">
+        <v>154</v>
       </c>
       <c r="C58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D58" t="b">
         <v>1</v>
@@ -2006,22 +2677,24 @@
         <v>1</v>
       </c>
       <c r="G58" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>300864</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>南大环境</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H58" t="b">
+        <v>1</v>
+      </c>
+      <c r="I58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>66</v>
+      </c>
+      <c r="B59" t="s">
+        <v>155</v>
       </c>
       <c r="C59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D59" t="b">
         <v>1</v>
@@ -2030,22 +2703,24 @@
         <v>1</v>
       </c>
       <c r="F59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G59" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>300866</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>安克创新</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H59" t="b">
+        <v>1</v>
+      </c>
+      <c r="I59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>67</v>
+      </c>
+      <c r="B60" t="s">
+        <v>156</v>
       </c>
       <c r="C60" t="b">
         <v>1</v>
@@ -2060,22 +2735,24 @@
         <v>0</v>
       </c>
       <c r="G60" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>300880</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>迦南智能</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="H60" t="b">
+        <v>1</v>
+      </c>
+      <c r="I60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>68</v>
+      </c>
+      <c r="B61" t="s">
+        <v>157</v>
       </c>
       <c r="C61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D61" t="b">
         <v>1</v>
@@ -2084,22 +2761,24 @@
         <v>1</v>
       </c>
       <c r="F61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>300896</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>爱美客</t>
-        </is>
+      <c r="H61" t="b">
+        <v>1</v>
+      </c>
+      <c r="I61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>69</v>
+      </c>
+      <c r="B62" t="s">
+        <v>158</v>
       </c>
       <c r="C62" t="b">
         <v>1</v>
@@ -2111,22 +2790,24 @@
         <v>1</v>
       </c>
       <c r="F62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>300910</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>瑞丰新材</t>
-        </is>
+      <c r="H62" t="b">
+        <v>1</v>
+      </c>
+      <c r="I62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>70</v>
+      </c>
+      <c r="B63" t="s">
+        <v>159</v>
       </c>
       <c r="C63" t="b">
         <v>1</v>
@@ -2138,22 +2819,24 @@
         <v>1</v>
       </c>
       <c r="F63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>300969</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>恒帅股份</t>
-        </is>
+      <c r="H63" t="b">
+        <v>1</v>
+      </c>
+      <c r="I63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>71</v>
+      </c>
+      <c r="B64" t="s">
+        <v>160</v>
       </c>
       <c r="C64" t="b">
         <v>1</v>
@@ -2170,20 +2853,22 @@
       <c r="G64" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>300979</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>华利集团</t>
-        </is>
+      <c r="H64" t="b">
+        <v>1</v>
+      </c>
+      <c r="I64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>72</v>
+      </c>
+      <c r="B65" t="s">
+        <v>161</v>
       </c>
       <c r="C65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D65" t="b">
         <v>1</v>
@@ -2195,19 +2880,21 @@
         <v>1</v>
       </c>
       <c r="G65" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>300993</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>玉马科技</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>73</v>
+      </c>
+      <c r="B66" t="s">
+        <v>162</v>
       </c>
       <c r="C66" t="b">
         <v>1</v>
@@ -2224,17 +2911,19 @@
       <c r="G66" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>301003</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>江苏博云</t>
-        </is>
+      <c r="H66" t="b">
+        <v>1</v>
+      </c>
+      <c r="I66" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>74</v>
+      </c>
+      <c r="B67" t="s">
+        <v>163</v>
       </c>
       <c r="C67" t="b">
         <v>1</v>
@@ -2251,17 +2940,19 @@
       <c r="G67" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>301004</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>嘉益股份</t>
-        </is>
+      <c r="H67" t="b">
+        <v>1</v>
+      </c>
+      <c r="I67" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>75</v>
+      </c>
+      <c r="B68" t="s">
+        <v>164</v>
       </c>
       <c r="C68" t="b">
         <v>1</v>
@@ -2276,19 +2967,21 @@
         <v>1</v>
       </c>
       <c r="G68" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>301015</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>百洋医药</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>76</v>
+      </c>
+      <c r="B69" t="s">
+        <v>165</v>
       </c>
       <c r="C69" t="b">
         <v>1</v>
@@ -2303,19 +2996,21 @@
         <v>1</v>
       </c>
       <c r="G69" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>301028</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>东亚机械</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>77</v>
+      </c>
+      <c r="B70" t="s">
+        <v>166</v>
       </c>
       <c r="C70" t="b">
         <v>1</v>
@@ -2327,22 +3022,24 @@
         <v>1</v>
       </c>
       <c r="F70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G70" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>301043</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>绿岛风</t>
-        </is>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>78</v>
+      </c>
+      <c r="B71" t="s">
+        <v>167</v>
       </c>
       <c r="C71" t="b">
         <v>1</v>
@@ -2354,22 +3051,24 @@
         <v>1</v>
       </c>
       <c r="F71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>301061</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>匠心家居</t>
-        </is>
+      <c r="H71" t="b">
+        <v>1</v>
+      </c>
+      <c r="I71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>79</v>
+      </c>
+      <c r="B72" t="s">
+        <v>168</v>
       </c>
       <c r="C72" t="b">
         <v>1</v>
@@ -2384,19 +3083,21 @@
         <v>1</v>
       </c>
       <c r="G72" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>301077</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>星华新材</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H72" t="b">
+        <v>1</v>
+      </c>
+      <c r="I72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>80</v>
+      </c>
+      <c r="B73" t="s">
+        <v>169</v>
       </c>
       <c r="C73" t="b">
         <v>1</v>
@@ -2408,22 +3109,24 @@
         <v>1</v>
       </c>
       <c r="F73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>301109</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>军信股份</t>
-        </is>
+      <c r="H73" t="b">
+        <v>1</v>
+      </c>
+      <c r="I73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>81</v>
+      </c>
+      <c r="B74" t="s">
+        <v>170</v>
       </c>
       <c r="C74" t="b">
         <v>1</v>
@@ -2435,22 +3138,24 @@
         <v>1</v>
       </c>
       <c r="F74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>301187</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>欧圣电气</t>
-        </is>
+      <c r="H74" t="b">
+        <v>1</v>
+      </c>
+      <c r="I74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>82</v>
+      </c>
+      <c r="B75" t="s">
+        <v>171</v>
       </c>
       <c r="C75" t="b">
         <v>1</v>
@@ -2462,22 +3167,24 @@
         <v>1</v>
       </c>
       <c r="F75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G75" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>301222</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>浙江恒威</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="H75" t="b">
+        <v>1</v>
+      </c>
+      <c r="I75" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>83</v>
+      </c>
+      <c r="B76" t="s">
+        <v>172</v>
       </c>
       <c r="C76" t="b">
         <v>1</v>
@@ -2494,20 +3201,22 @@
       <c r="G76" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>301277</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>新天地</t>
-        </is>
+      <c r="H76" t="b">
+        <v>1</v>
+      </c>
+      <c r="I76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>84</v>
+      </c>
+      <c r="B77" t="s">
+        <v>173</v>
       </c>
       <c r="C77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D77" t="b">
         <v>1</v>
@@ -2516,13 +3225,409 @@
         <v>1</v>
       </c>
       <c r="F77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
       </c>
+      <c r="H77" t="b">
+        <v>1</v>
+      </c>
+      <c r="I77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>85</v>
+      </c>
+      <c r="B78" t="s">
+        <v>174</v>
+      </c>
+      <c r="C78" t="b">
+        <v>1</v>
+      </c>
+      <c r="D78" t="b">
+        <v>1</v>
+      </c>
+      <c r="E78" t="b">
+        <v>1</v>
+      </c>
+      <c r="F78" t="b">
+        <v>1</v>
+      </c>
+      <c r="G78" t="b">
+        <v>0</v>
+      </c>
+      <c r="H78" t="b">
+        <v>1</v>
+      </c>
+      <c r="I78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>86</v>
+      </c>
+      <c r="B79" t="s">
+        <v>175</v>
+      </c>
+      <c r="C79" t="b">
+        <v>1</v>
+      </c>
+      <c r="D79" t="b">
+        <v>1</v>
+      </c>
+      <c r="E79" t="b">
+        <v>1</v>
+      </c>
+      <c r="F79" t="b">
+        <v>1</v>
+      </c>
+      <c r="G79" t="b">
+        <v>0</v>
+      </c>
+      <c r="H79" t="b">
+        <v>1</v>
+      </c>
+      <c r="I79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>87</v>
+      </c>
+      <c r="B80" t="s">
+        <v>176</v>
+      </c>
+      <c r="C80" t="b">
+        <v>1</v>
+      </c>
+      <c r="D80" t="b">
+        <v>1</v>
+      </c>
+      <c r="E80" t="b">
+        <v>1</v>
+      </c>
+      <c r="F80" t="b">
+        <v>0</v>
+      </c>
+      <c r="G80" t="b">
+        <v>0</v>
+      </c>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>88</v>
+      </c>
+      <c r="B81" t="s">
+        <v>177</v>
+      </c>
+      <c r="C81" t="b">
+        <v>1</v>
+      </c>
+      <c r="D81" t="b">
+        <v>1</v>
+      </c>
+      <c r="E81" t="b">
+        <v>1</v>
+      </c>
+      <c r="F81" t="b">
+        <v>1</v>
+      </c>
+      <c r="G81" t="b">
+        <v>0</v>
+      </c>
+      <c r="H81" t="b">
+        <v>1</v>
+      </c>
+      <c r="I81" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>89</v>
+      </c>
+      <c r="B82" t="s">
+        <v>178</v>
+      </c>
+      <c r="C82" t="b">
+        <v>1</v>
+      </c>
+      <c r="D82" t="b">
+        <v>1</v>
+      </c>
+      <c r="E82" t="b">
+        <v>1</v>
+      </c>
+      <c r="F82" t="b">
+        <v>1</v>
+      </c>
+      <c r="G82" t="b">
+        <v>1</v>
+      </c>
+      <c r="H82" t="b">
+        <v>1</v>
+      </c>
+      <c r="I82" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>90</v>
+      </c>
+      <c r="B83" t="s">
+        <v>179</v>
+      </c>
+      <c r="C83" t="b">
+        <v>1</v>
+      </c>
+      <c r="D83" t="b">
+        <v>1</v>
+      </c>
+      <c r="E83" t="b">
+        <v>1</v>
+      </c>
+      <c r="F83" t="b">
+        <v>1</v>
+      </c>
+      <c r="G83" t="b">
+        <v>0</v>
+      </c>
+      <c r="H83" t="b">
+        <v>1</v>
+      </c>
+      <c r="I83" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>91</v>
+      </c>
+      <c r="B84" t="s">
+        <v>180</v>
+      </c>
+      <c r="C84" t="b">
+        <v>1</v>
+      </c>
+      <c r="D84" t="b">
+        <v>1</v>
+      </c>
+      <c r="E84" t="b">
+        <v>1</v>
+      </c>
+      <c r="F84" t="b">
+        <v>1</v>
+      </c>
+      <c r="G84" t="b">
+        <v>0</v>
+      </c>
+      <c r="H84" t="b">
+        <v>1</v>
+      </c>
+      <c r="I84" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>92</v>
+      </c>
+      <c r="B85" t="s">
+        <v>181</v>
+      </c>
+      <c r="C85" t="b">
+        <v>1</v>
+      </c>
+      <c r="D85" t="b">
+        <v>1</v>
+      </c>
+      <c r="E85" t="b">
+        <v>1</v>
+      </c>
+      <c r="F85" t="b">
+        <v>1</v>
+      </c>
+      <c r="G85" t="b">
+        <v>0</v>
+      </c>
+      <c r="H85" t="b">
+        <v>1</v>
+      </c>
+      <c r="I85" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>93</v>
+      </c>
+      <c r="B86" t="s">
+        <v>182</v>
+      </c>
+      <c r="C86" t="b">
+        <v>1</v>
+      </c>
+      <c r="D86" t="b">
+        <v>1</v>
+      </c>
+      <c r="E86" t="b">
+        <v>1</v>
+      </c>
+      <c r="F86" t="b">
+        <v>1</v>
+      </c>
+      <c r="G86" t="b">
+        <v>0</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>94</v>
+      </c>
+      <c r="B87" t="s">
+        <v>183</v>
+      </c>
+      <c r="C87" t="b">
+        <v>1</v>
+      </c>
+      <c r="D87" t="b">
+        <v>1</v>
+      </c>
+      <c r="E87" t="b">
+        <v>1</v>
+      </c>
+      <c r="F87" t="b">
+        <v>1</v>
+      </c>
+      <c r="G87" t="b">
+        <v>0</v>
+      </c>
+      <c r="H87" t="b">
+        <v>1</v>
+      </c>
+      <c r="I87" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>95</v>
+      </c>
+      <c r="B88" t="s">
+        <v>184</v>
+      </c>
+      <c r="C88" t="b">
+        <v>1</v>
+      </c>
+      <c r="D88" t="b">
+        <v>1</v>
+      </c>
+      <c r="E88" t="b">
+        <v>1</v>
+      </c>
+      <c r="F88" t="b">
+        <v>1</v>
+      </c>
+      <c r="G88" t="b">
+        <v>1</v>
+      </c>
+      <c r="H88" t="b">
+        <v>1</v>
+      </c>
+      <c r="I88" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>96</v>
+      </c>
+      <c r="B89" t="s">
+        <v>185</v>
+      </c>
+      <c r="C89" t="b">
+        <v>1</v>
+      </c>
+      <c r="D89" t="b">
+        <v>1</v>
+      </c>
+      <c r="E89" t="b">
+        <v>1</v>
+      </c>
+      <c r="F89" t="b">
+        <v>1</v>
+      </c>
+      <c r="G89" t="b">
+        <v>0</v>
+      </c>
+      <c r="H89" t="b">
+        <v>1</v>
+      </c>
+      <c r="I89" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>97</v>
+      </c>
+      <c r="B90" t="s">
+        <v>186</v>
+      </c>
+      <c r="C90" t="b">
+        <v>1</v>
+      </c>
+      <c r="D90" t="b">
+        <v>1</v>
+      </c>
+      <c r="E90" t="b">
+        <v>1</v>
+      </c>
+      <c r="F90" t="b">
+        <v>1</v>
+      </c>
+      <c r="G90" t="b">
+        <v>1</v>
+      </c>
+      <c r="H90" t="b">
+        <v>1</v>
+      </c>
+      <c r="I90" t="b">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <autoFilter ref="A1:I90" xr:uid="{95387C00-7284-4A54-833F-25D58B38A0CA}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="TRUE"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="7">
+      <filters>
+        <filter val="TRUE"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>